--- a/src/ExcelsiorAspose.Tests/ComplexTypeWithSplitter.MultipleOverlappingNested.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/ComplexTypeWithSplitter.MultipleOverlappingNested.verified.xlsx
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Property</t>
   </si>
   <si>
-    <t>Custom1</t>
-  </si>
-  <si>
-    <t>Custom2</t>
+    <t>Nested Property</t>
   </si>
   <si>
     <t>the Property</t>
@@ -489,18 +486,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
